--- a/code/Datos_serios.xlsx
+++ b/code/Datos_serios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keleron\Desktop\memoria\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B1FB6-E932-4FE6-875F-BF0DD66309BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4440A669-E286-4DF5-AFEB-5EE99E614018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{3D258D67-34BB-4A9A-9ED5-0E0A7707CC63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{3D258D67-34BB-4A9A-9ED5-0E0A7707CC63}"/>
   </bookViews>
   <sheets>
     <sheet name="GUROBI+HEU" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="65">
   <si>
     <t>A173-P130-R5-B8-L5-T14-C0.1</t>
   </si>
@@ -232,6 +232,9 @@
   <si>
     <t>Promedio de TIME</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
@@ -332,42 +335,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -442,7 +442,40 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -463,34 +496,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7613,26 +7619,26 @@
     <dataField name="Promedio de TIME" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="0">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -7644,26 +7650,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -7689,49 +7695,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BBC5CB1-0344-493A-9775-9926CEFDC17D}" name="Tabla1" displayName="Tabla1" ref="A1:G46" totalsRowShown="0">
-  <autoFilter ref="A1:G46" xr:uid="{7BBC5CB1-0344-493A-9775-9926CEFDC17D}">
-    <filterColumn colId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BBC5CB1-0344-493A-9775-9926CEFDC17D}" name="Tabla1" displayName="Tabla1" ref="A1:H46" totalsRowShown="0">
+  <autoFilter ref="A1:H46" xr:uid="{7BBC5CB1-0344-493A-9775-9926CEFDC17D}">
+    <filterColumn colId="6">
       <filters>
-        <filter val="TIME"/>
+        <filter val="OPTIMAL"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:G46">
-    <sortCondition ref="A1:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition descending="1" ref="F1:F46"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{28A9789C-9F13-4D5C-9E0A-5D36785B3D03}" name="INSTANCIA" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{B5FA7B09-13AF-4A7A-989E-67072084A6FA}" name="Z" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{9C9E761D-2D4F-478B-B687-8F9278FCA441}" name="BOUND" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{454BB0BD-F858-43D3-8E2B-6A62C2C6314E}" name="GAP" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{2525C25F-F53B-4550-A49B-BCBA1C505B98}" name="TIME" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{FC717DE9-E13A-4F71-9454-A82A7ACACD5C}" name="STATUS" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{64E97CE6-10D4-4073-A020-B9E57B488C49}" name="HEU" dataDxfId="26"/>
+  <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{951F6D2F-A7F1-46BE-9872-B3BDCD7CFD40}" name="ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{28A9789C-9F13-4D5C-9E0A-5D36785B3D03}" name="INSTANCIA" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{B5FA7B09-13AF-4A7A-989E-67072084A6FA}" name="Z" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{9C9E761D-2D4F-478B-B687-8F9278FCA441}" name="BOUND" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{454BB0BD-F858-43D3-8E2B-6A62C2C6314E}" name="GAP" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{2525C25F-F53B-4550-A49B-BCBA1C505B98}" name="TIME" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{FC717DE9-E13A-4F71-9454-A82A7ACACD5C}" name="STATUS" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{64E97CE6-10D4-4073-A020-B9E57B488C49}" name="HEU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFDDA7DB-77B0-4CFB-AB21-6FC686EAE4B0}" name="Tabla4" displayName="Tabla4" ref="G1:K46" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFDDA7DB-77B0-4CFB-AB21-6FC686EAE4B0}" name="Tabla4" displayName="Tabla4" ref="G1:K46" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
   <autoFilter ref="G1:K46" xr:uid="{AFDDA7DB-77B0-4CFB-AB21-6FC686EAE4B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:K46">
     <sortCondition ref="H1:H46"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{233FC072-E8C8-48FB-A902-7F07E9BECD35}" name="INSTANCIA" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{2D2DD481-402E-4CC3-B227-F7057B365001}" name="Mín. de Z" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A0F1320A-4407-4BEA-9A96-DE90D19D5E91}" name="Máx. de Z" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{21735D19-3887-4F86-AA46-B5E502C894E4}" name="Promedio de Z" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{AFB3B625-FC7E-4D38-90B7-59154F2A5138}" name="Promedio de TIME" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{233FC072-E8C8-48FB-A902-7F07E9BECD35}" name="INSTANCIA" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2D2DD481-402E-4CC3-B227-F7057B365001}" name="Mín. de Z" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{A0F1320A-4407-4BEA-9A96-DE90D19D5E91}" name="Máx. de Z" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{21735D19-3887-4F86-AA46-B5E502C894E4}" name="Promedio de Z" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AFB3B625-FC7E-4D38-90B7-59154F2A5138}" name="Promedio de TIME" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D01C0EC-9352-448A-97DB-8DBD3B11D851}" name="Tabla3" displayName="Tabla3" ref="A1:D1126" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D01C0EC-9352-448A-97DB-8DBD3B11D851}" name="Tabla3" displayName="Tabla3" ref="A1:D1126" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:D1126" xr:uid="{5D01C0EC-9352-448A-97DB-8DBD3B11D851}">
     <filterColumn colId="0">
       <filters>
@@ -7739,11 +7746,14 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A352:D376">
+    <sortCondition descending="1" ref="A1:A1126"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8B4E1064-646E-474C-8AB3-22269DB40BD1}" name="INSTANCE" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{D3504F4A-50C3-4310-A602-ED23E8CB6632}" name="SEMILLA" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A01DD9E0-178D-480F-B16A-AD4EFBC96AF7}" name="Z" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{46B8D399-6780-44BE-AC00-AE0D04BFD0EE}" name="TIME" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{8B4E1064-646E-474C-8AB3-22269DB40BD1}" name="INSTANCE" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D3504F4A-50C3-4310-A602-ED23E8CB6632}" name="SEMILLA" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A01DD9E0-178D-480F-B16A-AD4EFBC96AF7}" name="Z" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{46B8D399-6780-44BE-AC00-AE0D04BFD0EE}" name="TIME" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8046,16 +8056,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131A6B6E-7642-4811-8CB3-E18EE69C5EB0}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -8064,81 +8074,81 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>37</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>3619</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>176</v>
+      </c>
+      <c r="D3" s="1">
+        <v>175</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3601</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H3" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -8146,45 +8156,45 @@
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
         <v>3600</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>176</v>
-      </c>
-      <c r="C5" s="1">
-        <v>175</v>
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3601</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
@@ -8192,713 +8202,713 @@
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1">
         <v>3600</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="1">
+        <v>168</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>44</v>
       </c>
       <c r="D7" s="1">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2983</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1">
-        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>65</v>
       </c>
       <c r="D8" s="1">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>2915</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="1">
-        <v>139</v>
       </c>
       <c r="C9" s="1">
         <v>139</v>
       </c>
       <c r="D9" s="1">
+        <v>139</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2541</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="1">
-        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>21</v>
       </c>
       <c r="D10" s="1">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2521</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>30</v>
       </c>
       <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>2184</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
       </c>
       <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>2165</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>261</v>
       </c>
       <c r="C13" s="1">
         <v>261</v>
       </c>
       <c r="D13" s="1">
+        <v>261</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2095</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>134</v>
       </c>
       <c r="C14" s="1">
         <v>134</v>
       </c>
       <c r="D14" s="1">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>2094</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="1">
-        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>30</v>
       </c>
       <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>1655</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>166</v>
       </c>
       <c r="C16" s="1">
         <v>166</v>
       </c>
       <c r="D16" s="1">
+        <v>166</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1498</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>21</v>
       </c>
       <c r="C17" s="1">
         <v>21</v>
       </c>
       <c r="D17" s="1">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1450</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>61</v>
       </c>
       <c r="C18" s="1">
         <v>61</v>
       </c>
       <c r="D18" s="1">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1448</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>33</v>
       </c>
       <c r="D19" s="1">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>1381</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>22</v>
       </c>
       <c r="D20" s="1">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>1186</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="1">
-        <v>15</v>
       </c>
       <c r="C21" s="1">
         <v>15</v>
       </c>
       <c r="D21" s="1">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1111</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>52</v>
       </c>
       <c r="D22" s="1">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>1067</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1032</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="5">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1">
+        <v>852</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="5">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C25" s="1">
         <v>41</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D25" s="1">
         <v>41</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F25" s="1">
         <v>834</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H25" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1">
+        <v>799</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1">
+        <v>769</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="5">
+        <v>8152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1">
+        <v>734</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1">
+        <v>686</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="5">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1">
+        <v>681</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="5">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1">
+        <v>639</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="5">
+        <v>10063</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C32" s="1">
         <v>52</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D32" s="1">
         <v>52</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F32" s="1">
         <v>633</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H32" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C33" s="1">
         <v>76</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D33" s="1">
         <v>76</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F33" s="1">
         <v>632</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H33" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C34" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D34" s="1">
         <v>24</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F34" s="1">
         <v>629</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H34" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
         <v>40</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D35" s="1">
         <v>40</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F35" s="1">
         <v>611</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H35" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D36" s="1">
         <v>32</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F36" s="1">
         <v>600</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H36" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1">
-        <v>175</v>
-      </c>
-      <c r="C29" s="1">
-        <v>175</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>485</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>431</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>417</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>403</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>396</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>326</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="1">
-        <v>486</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="5">
-        <v>5039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="1">
-        <v>595</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="5">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
@@ -8906,22 +8916,22 @@
       <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="1">
-        <v>106</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1">
+        <v>599</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="5">
-        <v>8024</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H37" s="5">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>46</v>
@@ -8929,22 +8939,22 @@
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="1">
-        <v>734</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="1">
+        <v>595</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="5">
-        <v>10064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H38" s="5">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -8952,160 +8962,160 @@
       <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="1">
-        <v>599</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1">
+        <v>486</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="5">
-        <v>10102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H39" s="5">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="1">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1">
+        <v>175</v>
       </c>
       <c r="E40" s="1">
-        <v>769</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="5">
-        <v>8152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>485</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1">
+        <v>21</v>
       </c>
       <c r="E41" s="1">
-        <v>686</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="5">
-        <v>10121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>431</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1">
+        <v>119</v>
       </c>
       <c r="E42" s="1">
-        <v>852</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="5">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>417</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1">
+        <v>17</v>
       </c>
       <c r="E43" s="1">
-        <v>639</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="5">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>403</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="1">
         <v>17</v>
       </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1">
+        <v>37</v>
       </c>
       <c r="E44" s="1">
-        <v>681</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="5">
-        <v>10032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>396</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>799</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="5">
-        <v>5043</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>326</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
@@ -9113,18 +9123,21 @@
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="1">
-        <v>1032</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1">
+        <v>106</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="5">
-        <v>8069</v>
+      <c r="H46" s="5">
+        <v>8024</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F47:F1048576 F1">
+  <conditionalFormatting sqref="F47:F1048576 G1">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9136,9 +9149,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F46">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="TIME">
-      <formula>NOT(ISERROR(SEARCH("TIME",F2)))</formula>
+  <conditionalFormatting sqref="G2:G46">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TIME">
+      <formula>NOT(ISERROR(SEARCH("TIME",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9151,8 +9164,8 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{92C8E58C-BE79-47D8-AB3E-C4C53A889AE4}">
-            <xm:f>NOT(ISERROR(SEARCH($F$38,F2)))</xm:f>
-            <xm:f>$F$38</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($G$38,G2)))</xm:f>
+            <xm:f>$G$38</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -9165,8 +9178,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{530BF4AB-9671-402E-8357-4249231DFEFB}">
-            <xm:f>NOT(ISERROR(SEARCH($F$14,F2)))</xm:f>
-            <xm:f>$F$14</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($G$14,G2)))</xm:f>
+            <xm:f>$G$14</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF006100"/>
@@ -9178,7 +9191,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F46</xm:sqref>
+          <xm:sqref>G2:G46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10709,13 +10722,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB17567-2416-4FE3-8095-783472803609}">
   <dimension ref="A1:D1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
